--- a/Version 1.3/Made/W/Track/W200m.xlsx
+++ b/Version 1.3/Made/W/Track/W200m.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="21015" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="W200m" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="98">
   <si>
     <t>.</t>
   </si>
@@ -348,7 +348,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF002288"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -367,7 +367,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF002288"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -553,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -593,18 +593,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="47" fontId="5" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -640,7 +628,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:protection>
     <c:data val="1"/>
   </c:protection>
@@ -672,7 +660,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16642389576946293"/>
+          <c:x val="0.16642389576946306"/>
           <c:y val="8.4435033856062228E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -689,7 +677,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14910691310133647"/>
+          <c:x val="0.14910691310133661"/>
           <c:y val="5.7971014492753624E-2"/>
           <c:w val="0.83204419889502768"/>
           <c:h val="0.79760178328934894"/>
@@ -2598,13 +2586,15 @@
             <c:order val="2"/>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>W200m!$C$110:$C$112</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2612,6 +2602,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4549,13 +4542,15 @@
             <c:order val="2"/>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>W200m!$G$110:$G$112</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4563,6 +4558,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6516,13 +6514,15 @@
             <c:order val="2"/>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>W200m!$K$110:$K$112</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -6530,6 +6530,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7768,11 +7771,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="185812096"/>
-        <c:axId val="185814016"/>
+        <c:axId val="137380224"/>
+        <c:axId val="137382144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185812096"/>
+        <c:axId val="137380224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7806,8 +7809,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49080621997722568"/>
-              <c:y val="0.94397349490978044"/>
+              <c:x val="0.49080621997722629"/>
+              <c:y val="0.943973494909781"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7845,17 +7848,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185814016"/>
+        <c:crossAx val="137382144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185814016"/>
+        <c:axId val="137382144"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="2.9976900000000035E-4"/>
+          <c:max val="2.9976900000000062E-4"/>
           <c:min val="2.5578700000000016E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -7887,7 +7890,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="7.0724328412636534E-3"/>
-              <c:y val="0.41426176769920953"/>
+              <c:y val="0.41426176769920997"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7925,11 +7928,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185812096"/>
+        <c:crossAx val="137380224"/>
         <c:crossesAt val="14"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.3150000000000011E-6"/>
-        <c:minorUnit val="1.1570000000000026E-6"/>
+        <c:minorUnit val="1.1570000000000046E-6"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -7975,7 +7978,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196850393659" l="0.74803149606299801" r="0.74803149606299801" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
+    <c:pageMargins b="0.98425196850393659" l="0.74803149606299868" r="0.74803149606299868" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -8308,8 +8311,8 @@
   </sheetPr>
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="S1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -9667,66 +9670,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="23" t="s">
         <v>80</v>
       </c>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="26" t="s">
+      <c r="AI1" s="22" t="s">
         <v>79</v>
       </c>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="25" t="s">
+      <c r="AK1" s="21" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9786,11 +9789,11 @@
         <v>27.26</v>
       </c>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="26">
+      <c r="AI2" s="22">
         <v>38437</v>
       </c>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="25">
+      <c r="AK2" s="21">
         <f>D3</f>
         <v>2.6319444444444442E-4</v>
       </c>
@@ -11764,73 +11767,73 @@
       <c r="AK34" s="7"/>
     </row>
     <row r="35" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="13">
         <v>23.14</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="14">
         <v>2.6435185185185182E-4</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="13">
         <v>22.64</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="14">
         <v>2.7326388888888892E-4</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="13">
         <v>33.97</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="14">
         <v>2.6817129629629635E-4</v>
       </c>
-      <c r="M35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
+      <c r="M35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
       <c r="AF35" s="16"/>
       <c r="AG35" s="16"/>
       <c r="AH35" s="2"/>
@@ -11842,77 +11845,77 @@
       <c r="AK35" s="7"/>
     </row>
     <row r="36" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="13">
         <v>27.87</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="14">
         <v>2.6296296296296294E-4</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="13">
         <v>25.14</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="14">
         <v>2.7025462962962967E-4</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="13">
         <v>36.47</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="14">
         <v>2.6805555555555556E-4</v>
       </c>
-      <c r="M36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21" t="s">
+      <c r="M36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="U36" s="21" t="s">
+      <c r="U36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
       <c r="AF36" s="16"/>
       <c r="AG36" s="16"/>
       <c r="AH36" s="2"/>
@@ -11924,74 +11927,74 @@
       <c r="AK36" s="7"/>
     </row>
     <row r="37" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18" t="s">
+      <c r="C37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18" t="s">
+      <c r="G37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S37" s="24" t="s">
+      <c r="K37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="T37" s="23">
+      <c r="T37" s="19">
         <v>2.5578703703703706E-4</v>
       </c>
-      <c r="U37" s="22">
+      <c r="U37" s="18">
         <f>T37</f>
         <v>2.5578703703703706E-4</v>
       </c>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
       <c r="AF37" s="16"/>
       <c r="AG37" s="16"/>
       <c r="AH37" s="2"/>
@@ -12003,80 +12006,80 @@
       <c r="AK37" s="7"/>
     </row>
     <row r="38" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="13">
         <v>19.079999999999998</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="14">
         <v>2.7106481481481486E-4</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="13">
         <v>17.149999999999999</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="14">
         <v>2.7488425925925928E-4</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="13">
         <v>18.07</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="14">
         <v>2.83912037037037E-4</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="24" t="s">
+      <c r="M38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="T38" s="23">
+      <c r="T38" s="19">
         <v>2.8703703703703703E-4</v>
       </c>
-      <c r="U38" s="22">
+      <c r="U38" s="18">
         <f>T38</f>
         <v>2.8703703703703703E-4</v>
       </c>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
       <c r="AF38" s="16"/>
       <c r="AG38" s="16"/>
       <c r="AH38" s="2"/>
@@ -12088,80 +12091,80 @@
       <c r="AK38" s="7"/>
     </row>
     <row r="39" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="13">
         <v>24.37</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="14">
         <v>2.645833333333333E-4</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="13">
         <v>20.239999999999998</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="14">
         <v>2.657407407407407E-4</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="13">
         <v>20.22</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="14">
         <v>2.7708333333333334E-4</v>
       </c>
-      <c r="M39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="24" t="s">
+      <c r="M39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="T39" s="23">
+      <c r="T39" s="19">
         <v>2.3148148148148148E-6</v>
       </c>
-      <c r="U39" s="22">
+      <c r="U39" s="18">
         <f>T39</f>
         <v>2.3148148148148148E-6</v>
       </c>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
       <c r="AF39" s="16"/>
       <c r="AG39" s="16"/>
       <c r="AH39" s="2"/>
@@ -12173,80 +12176,80 @@
       <c r="AK39" s="7"/>
     </row>
     <row r="40" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="13">
         <v>29.66</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="14">
         <v>2.6296296296296294E-4</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="13">
         <v>23.34</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="14">
         <v>2.6655092592592594E-4</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="13">
         <v>22.38</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="14">
         <v>2.7187499999999998E-4</v>
       </c>
-      <c r="M40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="24" t="s">
+      <c r="M40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T40" s="23">
+      <c r="T40" s="19">
         <v>1.1574074074074074E-6</v>
       </c>
-      <c r="U40" s="22">
+      <c r="U40" s="18">
         <f>T40</f>
         <v>1.1574074074074074E-6</v>
       </c>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
       <c r="AF40" s="16"/>
       <c r="AG40" s="16"/>
       <c r="AH40" s="2"/>
@@ -12258,67 +12261,67 @@
       <c r="AK40" s="7"/>
     </row>
     <row r="41" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18" t="s">
+      <c r="C41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18" t="s">
+      <c r="G41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
+      <c r="K41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
       <c r="AF41" s="16"/>
       <c r="AG41" s="16"/>
       <c r="AH41" s="2"/>
@@ -12330,73 +12333,73 @@
       <c r="AK41" s="7"/>
     </row>
     <row r="42" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="13">
         <v>19.170000000000002</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="14">
         <v>2.7337962962962966E-4</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="13">
         <v>17.82</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="14">
         <v>2.7581018518518514E-4</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K42" s="18">
+      <c r="K42" s="13">
         <v>16.260000000000002</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="14">
         <v>2.7650462962962964E-4</v>
       </c>
-      <c r="M42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
+      <c r="M42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="16"/>
       <c r="AH42" s="2"/>
@@ -12408,73 +12411,73 @@
       <c r="AK42" s="7"/>
     </row>
     <row r="43" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="13">
         <v>26.9</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="14">
         <v>2.6099537037037036E-4</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="13">
         <v>23.49</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="14">
         <v>2.6643518518518515E-4</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="13">
         <v>20.23</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="14">
         <v>2.7094907407407406E-4</v>
       </c>
-      <c r="M43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
+      <c r="M43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
       <c r="AF43" s="16"/>
       <c r="AG43" s="16"/>
       <c r="AH43" s="2"/>
@@ -12486,73 +12489,73 @@
       <c r="AK43" s="7"/>
     </row>
     <row r="44" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="13">
         <v>34.630000000000003</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="14">
         <v>2.5740740740740742E-4</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="13">
         <v>29.15</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="14">
         <v>2.6423611111111108E-4</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="13">
         <v>24.2</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="14">
         <v>2.7013888888888888E-4</v>
       </c>
-      <c r="M44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
+      <c r="M44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
       <c r="AF44" s="16"/>
       <c r="AG44" s="16"/>
       <c r="AH44" s="2"/>
@@ -12564,67 +12567,67 @@
       <c r="AK44" s="7"/>
     </row>
     <row r="45" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18" t="s">
+      <c r="C45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18" t="s">
+      <c r="G45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="21"/>
+      <c r="K45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
       <c r="AF45" s="16"/>
       <c r="AG45" s="16"/>
       <c r="AH45" s="2"/>
@@ -12636,73 +12639,73 @@
       <c r="AK45" s="7"/>
     </row>
     <row r="46" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="13">
         <v>17.93</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="14">
         <v>2.7256944444444448E-4</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="13">
         <v>19.66</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="14">
         <v>2.7326388888888892E-4</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K46" s="18">
+      <c r="K46" s="13">
         <v>15.46</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="14">
         <v>2.8368055555555557E-4</v>
       </c>
-      <c r="M46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="21"/>
+      <c r="M46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
       <c r="AF46" s="16"/>
       <c r="AG46" s="16"/>
       <c r="AH46" s="2"/>
@@ -12714,73 +12717,73 @@
       <c r="AK46" s="7"/>
     </row>
     <row r="47" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="13">
         <v>22.2</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="14">
         <v>2.641203703703704E-4</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="13">
         <v>24.31</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="14">
         <v>2.6712962962962964E-4</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="J47" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K47" s="18">
+      <c r="K47" s="13">
         <v>19.149999999999999</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="14">
         <v>2.6874999999999995E-4</v>
       </c>
-      <c r="M47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
-      <c r="AE47" s="21"/>
+      <c r="M47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
       <c r="AF47" s="16"/>
       <c r="AG47" s="16"/>
       <c r="AH47" s="2"/>
@@ -12792,58 +12795,58 @@
       <c r="AK47" s="7"/>
     </row>
     <row r="48" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="13">
         <v>26.46</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="14">
         <v>2.6296296296296294E-4</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="13">
         <v>28.97</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="14">
         <v>2.6249999999999998E-4</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="13">
         <v>22.85</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="14">
         <v>2.6435185185185182E-4</v>
       </c>
-      <c r="M48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R48" s="17" t="s">
+      <c r="M48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S48" s="16"/>
@@ -12870,52 +12873,52 @@
       <c r="AK48" s="7"/>
     </row>
     <row r="49" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18" t="s">
+      <c r="C49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18" t="s">
+      <c r="G49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R49" s="17" t="s">
+      <c r="K49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S49" s="16"/>
@@ -12942,58 +12945,58 @@
       <c r="AK49" s="7"/>
     </row>
     <row r="50" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="13">
         <v>22.32</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="14">
         <v>2.7268518518518522E-4</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="13">
         <v>14.91</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="14">
         <v>2.7650462962962964E-4</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K50" s="18">
+      <c r="K50" s="13">
         <v>21.08</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="14">
         <v>2.7314814814814818E-4</v>
       </c>
-      <c r="M50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="17" t="s">
+      <c r="M50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R50" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S50" s="16"/>
@@ -13020,58 +13023,58 @@
       <c r="AK50" s="7"/>
     </row>
     <row r="51" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="13">
         <v>26.41</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="14">
         <v>2.6793981481481477E-4</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="13">
         <v>20.440000000000001</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="14">
         <v>2.6921296296296301E-4</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="J51" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="18">
+      <c r="K51" s="13">
         <v>23.59</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="14">
         <v>2.7222222222222226E-4</v>
       </c>
-      <c r="M51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R51" s="17" t="s">
+      <c r="M51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R51" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S51" s="16"/>
@@ -13098,58 +13101,58 @@
       <c r="AK51" s="7"/>
     </row>
     <row r="52" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="13">
         <v>30.51</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="14">
         <v>2.670138888888889E-4</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="13">
         <v>25.98</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="14">
         <v>2.657407407407407E-4</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J52" s="18" t="s">
+      <c r="J52" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K52" s="18">
+      <c r="K52" s="13">
         <v>26.1</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L52" s="14">
         <v>2.7187499999999998E-4</v>
       </c>
-      <c r="M52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R52" s="17" t="s">
+      <c r="M52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S52" s="16"/>
@@ -13176,52 +13179,52 @@
       <c r="AK52" s="7"/>
     </row>
     <row r="53" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="20"/>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="15"/>
+      <c r="B53" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18" t="s">
+      <c r="C53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18" t="s">
+      <c r="G53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R53" s="17" t="s">
+      <c r="K53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R53" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S53" s="16"/>
@@ -13248,58 +13251,58 @@
       <c r="AK53" s="7"/>
     </row>
     <row r="54" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="13">
         <v>18.079999999999998</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="14">
         <v>2.7326388888888892E-4</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="13">
         <v>17.649999999999999</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="14">
         <v>2.6956018518518518E-4</v>
       </c>
-      <c r="I54" s="18" t="s">
+      <c r="I54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="13">
         <v>23.29</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="14">
         <v>2.7094907407407406E-4</v>
       </c>
-      <c r="M54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R54" s="17" t="s">
+      <c r="M54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R54" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="16"/>
@@ -13326,58 +13329,58 @@
       <c r="AK54" s="7"/>
     </row>
     <row r="55" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="13">
         <v>26.15</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="14">
         <v>2.6793981481481477E-4</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="13">
         <v>20.45</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="14">
         <v>2.6666666666666668E-4</v>
       </c>
-      <c r="I55" s="18" t="s">
+      <c r="I55" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J55" s="18" t="s">
+      <c r="J55" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K55" s="18">
+      <c r="K55" s="13">
         <v>25.79</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="14">
         <v>2.7071759259259264E-4</v>
       </c>
-      <c r="M55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R55" s="17" t="s">
+      <c r="M55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R55" s="12" t="s">
         <v>0</v>
       </c>
       <c r="S55" s="16"/>
@@ -16539,25 +16542,49 @@
       </c>
       <c r="AK109" s="7"/>
     </row>
-    <row r="110" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
+    <row r="110" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A110" s="11"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R110" s="9" t="s">
+        <v>0</v>
+      </c>
       <c r="AH110" s="2"/>
       <c r="AI110" s="8"/>
       <c r="AJ110" s="4" t="e">

--- a/Version 1.3/Made/W/Track/W200m.xlsx
+++ b/Version 1.3/Made/W/Track/W200m.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="W200m" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="98">
   <si>
     <t>.</t>
   </si>
@@ -323,7 +323,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +334,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -371,13 +372,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,8 +398,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -502,6 +510,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -550,10 +569,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,19 +618,28 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,7 +656,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:protection>
     <c:data val="1"/>
   </c:protection>
@@ -660,7 +688,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16642389576946306"/>
+          <c:x val="0.16642389576946318"/>
           <c:y val="8.4435033856062228E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -677,7 +705,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14910691310133661"/>
+          <c:x val="0.14910691310133672"/>
           <c:y val="5.7971014492753624E-2"/>
           <c:w val="0.83204419889502768"/>
           <c:h val="0.79760178328934894"/>
@@ -7771,11 +7799,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137380224"/>
-        <c:axId val="137382144"/>
+        <c:axId val="196411776"/>
+        <c:axId val="196413696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137380224"/>
+        <c:axId val="196411776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34"/>
@@ -7809,8 +7837,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49080621997722629"/>
-              <c:y val="0.943973494909781"/>
+              <c:x val="0.49080621997722668"/>
+              <c:y val="0.94397349490978133"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7848,17 +7876,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137382144"/>
+        <c:crossAx val="196413696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137382144"/>
+        <c:axId val="196413696"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="2.9976900000000062E-4"/>
+          <c:max val="2.9976900000000084E-4"/>
           <c:min val="2.5578700000000016E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -7890,7 +7918,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="7.0724328412636534E-3"/>
-              <c:y val="0.41426176769920997"/>
+              <c:y val="0.41426176769921025"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -7928,11 +7956,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137380224"/>
+        <c:crossAx val="196411776"/>
         <c:crossesAt val="14"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.3150000000000011E-6"/>
-        <c:minorUnit val="1.1570000000000046E-6"/>
+        <c:minorUnit val="1.1570000000000062E-6"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -7978,7 +8006,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196850393659" l="0.74803149606299868" r="0.74803149606299868" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
+    <c:pageMargins b="0.98425196850393659" l="0.74803149606299901" r="0.74803149606299901" t="0.98425196850393659" header="0.51181102362204722" footer="0.51181102362204722"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="-3" verticalDpi="-3"/>
   </c:printSettings>
 </c:chartSpace>
@@ -8311,29 +8339,29 @@
   </sheetPr>
   <dimension ref="A1:AL150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="16.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12" style="6" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="16.28515625" style="6" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" style="1" customWidth="1"/>
@@ -9670,66 +9698,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="26" t="s">
         <v>80</v>
       </c>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="25" t="s">
         <v>79</v>
       </c>
       <c r="AJ1" s="4"/>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="24" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9789,11 +9817,11 @@
         <v>27.26</v>
       </c>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="22">
+      <c r="AI2" s="25">
         <v>38437</v>
       </c>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="21">
+      <c r="AK2" s="24">
         <f>D3</f>
         <v>2.6319444444444442E-4</v>
       </c>
@@ -10018,17 +10046,17 @@
       <c r="L6" s="14">
         <v>2.7534722222222218E-4</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>0</v>
+      <c r="M6" s="23">
+        <v>2.5578703703703706E-4</v>
+      </c>
+      <c r="N6" s="22">
+        <v>2.9976851851851849E-4</v>
+      </c>
+      <c r="O6" s="22">
+        <v>2.3148148148148148E-6</v>
+      </c>
+      <c r="P6" s="21">
+        <v>1.1574074074074074E-6</v>
       </c>
       <c r="Q6" s="13" t="s">
         <v>0</v>
@@ -16952,7 +16980,6 @@
       <c r="AK150" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection password="E455" sheet="1" scenarios="1"/>
   <autoFilter ref="A1:L122"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
